--- a/ESERCIZIO_M2-1-3_dati.xlsx
+++ b/ESERCIZIO_M2-1-3_dati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladb\OneDrive\Desktop\ANALISI DATA\EPICODE\MODULO 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladb\OneDrive\Desktop\ANALISI DATA\EPICODE\MODULO 1\Finiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A0AA4-6E78-4274-B9EF-A0EFE802E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A765C9-A843-47B5-84E6-790677983867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3119,6 +3119,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3138,6 +3143,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3157,6 +3167,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3176,6 +3191,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3195,6 +3215,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3214,6 +3239,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3235,6 +3265,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3256,6 +3291,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3277,6 +3317,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3298,10 +3343,21 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-5C1F-409E-88B1-294EB756EFFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6111111111111011E-2"/>
+                  <c:y val="4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3328,7 +3384,7 @@
                   <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -3336,6 +3392,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-5C1F-409E-88B1-294EB756EFFD}"/>
                 </c:ext>
@@ -7609,8 +7666,8 @@
   </sheetPr>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
